--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2834.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2834.xlsx
@@ -354,7 +354,7 @@
         <v>2.441714978551335</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.359656644298868</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2834.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2834.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.172709282949405</v>
+        <v>1.153239130973816</v>
       </c>
       <c r="B1">
-        <v>2.441714978551335</v>
+        <v>2.373466014862061</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>5.083518505096436</v>
       </c>
       <c r="D1">
-        <v>2.359656644298868</v>
+        <v>2.283595561981201</v>
       </c>
       <c r="E1">
-        <v>1.237443375070326</v>
+        <v>1.243760108947754</v>
       </c>
     </row>
   </sheetData>
